--- a/Documents/Personal files/TL/TidsrapportVecka18Tim.xlsx
+++ b/Documents/Personal files/TL/TidsrapportVecka18Tim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Tidsrapport</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Möte + Unity</t>
+  </si>
+  <si>
+    <t>Röd dag!</t>
+  </si>
+  <si>
+    <t>Arbeta på Unity</t>
   </si>
 </sst>
 </file>
@@ -160,35 +166,19 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -201,6 +191,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +511,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,159 +520,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="17">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>42121</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="13">
-        <v>2</v>
+      <c r="D9" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>42122</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="13">
-        <v>2</v>
+      <c r="D10" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="5">
         <v>42123</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="13">
-        <v>1</v>
+      <c r="D11" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="5">
         <v>42124</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="5">
         <v>42125</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="5">
         <v>42126</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="6">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="5">
         <v>42127</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="10">
         <f>D9+D10+D11+D12+D13+D14+D15</f>
-        <v>8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B8:C8"/>
@@ -675,12 +695,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Personal files/TL/TidsrapportVecka18Tim.xlsx
+++ b/Documents/Personal files/TL/TidsrapportVecka18Tim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Tidsrapport</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Arbeta på Unity</t>
+  </si>
+  <si>
+    <t>Lite Unity Arbete</t>
   </si>
 </sst>
 </file>
@@ -191,6 +194,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -199,14 +210,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +514,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,12 +523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -534,50 +537,50 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>18</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
@@ -586,10 +589,10 @@
       <c r="A9" s="5">
         <v>42121</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -598,10 +601,10 @@
       <c r="A10" s="5">
         <v>42122</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6">
         <v>3</v>
       </c>
@@ -610,10 +613,10 @@
       <c r="A11" s="5">
         <v>42123</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6">
         <v>2</v>
       </c>
@@ -622,10 +625,10 @@
       <c r="A12" s="5">
         <v>42124</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6">
         <v>3</v>
       </c>
@@ -634,10 +637,10 @@
       <c r="A13" s="5">
         <v>42125</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="6">
         <v>0</v>
       </c>
@@ -646,10 +649,10 @@
       <c r="A14" s="5">
         <v>42126</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="6">
         <v>3.5</v>
       </c>
@@ -658,9 +661,13 @@
       <c r="A15" s="5">
         <v>42127</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -670,7 +677,7 @@
       </c>
       <c r="D16" s="10">
         <f>D9+D10+D11+D12+D13+D14+D15</f>
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,12 +688,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B8:C8"/>
@@ -695,6 +696,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
